--- a/100runs/run083/NotionalETEOutput083.xlsx
+++ b/100runs/run083/NotionalETEOutput083.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,31 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_463.MISSILE_HIGHWIND_463</t>
+    <t>MISSILE_HELLMASKER_246.MISSILE_HELLMASKER_246</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_448.MISSILE_SOMERSAULT_448</t>
+    <t>MISSILE_HIGHWIND_93.MISSILE_HIGHWIND_93</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_426.MISSILE_BRAVER_426</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +480,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G2">
-        <v>-106.9388139812127</v>
+        <v>4841128.443901939</v>
       </c>
       <c r="H2">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I2">
-        <v>-1313.655490587164</v>
+        <v>1114862.348383417</v>
       </c>
       <c r="J2">
-        <v>2751.690727528313</v>
+        <v>4843217.971165254</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984366.928911647</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +515,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G3">
-        <v>-106.9388139812127</v>
+        <v>4841128.443901939</v>
       </c>
       <c r="H3">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I3">
-        <v>-1287.720433283478</v>
+        <v>1114891.962406204</v>
       </c>
       <c r="J3">
-        <v>2684.753665415021</v>
+        <v>4843169.319630293</v>
       </c>
       <c r="K3">
-        <v>417.2012937374269</v>
+        <v>3984670.724644973</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +550,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G4">
-        <v>-106.9388139812127</v>
+        <v>4841128.443901939</v>
       </c>
       <c r="H4">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I4">
-        <v>-1261.146749053503</v>
+        <v>1114922.305647057</v>
       </c>
       <c r="J4">
-        <v>2617.816603301729</v>
+        <v>4843120.668095332</v>
       </c>
       <c r="K4">
-        <v>813.5990185870294</v>
+        <v>3984959.371730487</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +585,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G5">
-        <v>-106.9388139812127</v>
+        <v>4841128.443901939</v>
       </c>
       <c r="H5">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I5">
-        <v>-1233.918712296707</v>
+        <v>1114953.396062301</v>
       </c>
       <c r="J5">
-        <v>2550.879541188437</v>
+        <v>4843072.016560372</v>
       </c>
       <c r="K5">
-        <v>1189.19317454881</v>
+        <v>3985232.870168187</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +620,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G6">
-        <v>-106.9388139812127</v>
+        <v>4841128.443901939</v>
       </c>
       <c r="H6">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I6">
-        <v>-1206.020210184109</v>
+        <v>1114985.252050418</v>
       </c>
       <c r="J6">
-        <v>2483.942479075145</v>
+        <v>4843023.365025411</v>
       </c>
       <c r="K6">
-        <v>1543.983761622768</v>
+        <v>3985491.219958074</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +655,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G7">
-        <v>-106.9388139812127</v>
+        <v>4841128.443901939</v>
       </c>
       <c r="H7">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I7">
-        <v>-1177.434733123139</v>
+        <v>1115017.892462935</v>
       </c>
       <c r="J7">
-        <v>2417.005416961853</v>
+        <v>4842974.713490451</v>
       </c>
       <c r="K7">
-        <v>1877.970779808904</v>
+        <v>3985734.421100148</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +690,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G8">
-        <v>-106.9388139812127</v>
+        <v>4841128.443901939</v>
       </c>
       <c r="H8">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I8">
-        <v>-1148.1453649877</v>
+        <v>1115051.336615582</v>
       </c>
       <c r="J8">
-        <v>2350.06835484856</v>
+        <v>4842926.061955489</v>
       </c>
       <c r="K8">
-        <v>2191.154229107217</v>
+        <v>3985962.473594408</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +725,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G9">
-        <v>-106.9388139812127</v>
+        <v>4841128.443901939</v>
       </c>
       <c r="H9">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I9">
-        <v>-1118.13477310765</v>
+        <v>1115085.604299719</v>
       </c>
       <c r="J9">
-        <v>2283.131292735268</v>
+        <v>4842877.410420529</v>
       </c>
       <c r="K9">
-        <v>2483.534109517707</v>
+        <v>3986175.377440855</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +760,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>213.2132526438506</v>
+        <v>1116580.541831249</v>
       </c>
       <c r="G10">
-        <v>-89.28020566333575</v>
+        <v>4841144.956734387</v>
       </c>
       <c r="H10">
-        <v>942.0585982406059</v>
+        <v>3985228.435130807</v>
       </c>
       <c r="I10">
-        <v>-1087.385198011792</v>
+        <v>1115120.715794053</v>
       </c>
       <c r="J10">
-        <v>2216.194230621976</v>
+        <v>4842828.758885569</v>
       </c>
       <c r="K10">
-        <v>2755.110421040374</v>
+        <v>3986373.132639488</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +795,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>165.4783567546197</v>
+        <v>1116531.861178627</v>
       </c>
       <c r="G11">
-        <v>-71.62159734545881</v>
+        <v>4841161.469566833</v>
       </c>
       <c r="H11">
-        <v>1160.609853867537</v>
+        <v>3985427.68954292</v>
       </c>
       <c r="I11">
-        <v>-1055.878442918289</v>
+        <v>1115156.691876633</v>
       </c>
       <c r="J11">
-        <v>2149.257168508684</v>
+        <v>4842780.107350608</v>
       </c>
       <c r="K11">
-        <v>3005.883163675217</v>
+        <v>3986555.739190309</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>137.4365000605715</v>
+        <v>1116503.263737297</v>
       </c>
       <c r="G12">
-        <v>-53.9629890275819</v>
+        <v>4841177.98239928</v>
       </c>
       <c r="H12">
-        <v>1290.790158854481</v>
+        <v>3985546.375661032</v>
       </c>
       <c r="I12">
-        <v>-1023.595862966292</v>
+        <v>1115193.553837149</v>
       </c>
       <c r="J12">
-        <v>2082.320106395392</v>
+        <v>4842731.455815647</v>
       </c>
       <c r="K12">
-        <v>3235.85233742224</v>
+        <v>3986723.197093316</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +865,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>119.7344228605939</v>
+        <v>1116485.210934316</v>
       </c>
       <c r="G13">
-        <v>-36.30438070970497</v>
+        <v>4841194.495231728</v>
       </c>
       <c r="H13">
-        <v>1383.821224278197</v>
+        <v>3985631.192607959</v>
       </c>
       <c r="I13">
-        <v>-990.5183541824053</v>
+        <v>1115231.323489531</v>
       </c>
       <c r="J13">
-        <v>2015.383044282099</v>
+        <v>4842682.804280686</v>
       </c>
       <c r="K13">
-        <v>3445.017942281439</v>
+        <v>3986875.506348509</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +900,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.3890660782795</v>
+        <v>1116472.620982797</v>
       </c>
       <c r="G14">
-        <v>-18.64577239182804</v>
+        <v>4841211.008064174</v>
       </c>
       <c r="H14">
-        <v>1456.264465082216</v>
+        <v>3985697.239519089</v>
       </c>
       <c r="I14">
-        <v>-956.6263421754661</v>
+        <v>1115270.023184854</v>
       </c>
       <c r="J14">
-        <v>1948.445982168807</v>
+        <v>4842634.152745727</v>
       </c>
       <c r="K14">
-        <v>3633.379978252816</v>
+        <v>3987012.66695589</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +935,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.17906021741909</v>
+        <v>1116463.228501937</v>
       </c>
       <c r="G15">
-        <v>-0.9871640739511238</v>
+        <v>4841227.520896622</v>
       </c>
       <c r="H15">
-        <v>1515.601098510664</v>
+        <v>3985751.337062371</v>
       </c>
       <c r="I15">
-        <v>-921.8997705529351</v>
+        <v>1115309.675824572</v>
       </c>
       <c r="J15">
-        <v>1881.508920055515</v>
+        <v>4842585.501210766</v>
       </c>
       <c r="K15">
-        <v>3800.938445336369</v>
+        <v>3987134.678915456</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +970,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.97812177341483</v>
+        <v>1116455.884893527</v>
       </c>
       <c r="G16">
-        <v>16.67144424392581</v>
+        <v>4841244.033729068</v>
       </c>
       <c r="H16">
-        <v>1565.85489566025</v>
+        <v>3985797.153732602</v>
       </c>
       <c r="I16">
-        <v>-886.3180890520596</v>
+        <v>1115350.304874064</v>
       </c>
       <c r="J16">
-        <v>1814.571857942223</v>
+        <v>4842536.849675804</v>
       </c>
       <c r="K16">
-        <v>3947.6933435321</v>
+        <v>3987241.54222721</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1005,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.15203825469489</v>
+        <v>1116449.943379617</v>
       </c>
       <c r="G17">
-        <v>34.33005256180274</v>
+        <v>4841260.546561515</v>
       </c>
       <c r="H17">
-        <v>1609.440912107051</v>
+        <v>3985836.891349568</v>
       </c>
       <c r="I17">
-        <v>-849.8602413787713</v>
+        <v>1115391.934376521</v>
       </c>
       <c r="J17">
-        <v>1747.634795828931</v>
+        <v>4842488.198140844</v>
       </c>
       <c r="K17">
-        <v>4073.644672840008</v>
+        <v>3987333.25689115</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1040,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.31431298430256</v>
+        <v>1116445.009805991</v>
       </c>
       <c r="G18">
-        <v>51.98866087967965</v>
+        <v>4841277.059393963</v>
       </c>
       <c r="H18">
-        <v>1647.923051632048</v>
+        <v>3985871.975733164</v>
       </c>
       <c r="I18">
-        <v>-812.5046527471335</v>
+        <v>1115434.588967177</v>
       </c>
       <c r="J18">
-        <v>1680.697733715639</v>
+        <v>4842439.546605883</v>
       </c>
       <c r="K18">
-        <v>4178.792433260094</v>
+        <v>3987409.822907277</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1075,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.21470481124521</v>
+        <v>1116440.828973549</v>
       </c>
       <c r="G19">
-        <v>69.6472691975566</v>
+        <v>4841293.572226409</v>
       </c>
       <c r="H19">
-        <v>1682.372310224709</v>
+        <v>3985903.383316474</v>
       </c>
       <c r="I19">
-        <v>-774.2292171119527</v>
+        <v>1115478.293887887</v>
       </c>
       <c r="J19">
-        <v>1613.760671602346</v>
+        <v>4842390.895070923</v>
       </c>
       <c r="K19">
-        <v>4263.136624792357</v>
+        <v>3987471.240275591</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1110,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.68329232943134</v>
+        <v>1116437.227594284</v>
       </c>
       <c r="G20">
-        <v>87.30587751543351</v>
+        <v>4841310.085058857</v>
       </c>
       <c r="H20">
-        <v>1713.554360569078</v>
+        <v>3985931.812167601</v>
       </c>
       <c r="I20">
-        <v>-735.0112840870107</v>
+        <v>1115523.075002062</v>
       </c>
       <c r="J20">
-        <v>1546.823609489054</v>
+        <v>4842342.243535962</v>
       </c>
       <c r="K20">
-        <v>4326.677247436797</v>
+        <v>3987517.508996091</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1145,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.60018675860003</v>
+        <v>1116434.083404095</v>
       </c>
       <c r="G21">
-        <v>104.9644858333104</v>
+        <v>4841326.597891304</v>
       </c>
       <c r="H21">
-        <v>1742.035603125136</v>
+        <v>3985957.778677038</v>
       </c>
       <c r="I21">
-        <v>-694.8276455411665</v>
+        <v>1115568.958809975</v>
       </c>
       <c r="J21">
-        <v>1479.886547375762</v>
+        <v>4842293.592001001</v>
       </c>
       <c r="K21">
-        <v>4369.414301193415</v>
+        <v>3987548.629068778</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1180,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.87809593807211</v>
+        <v>1116431.307381331</v>
       </c>
       <c r="G22">
-        <v>122.6230941511874</v>
+        <v>4841343.11072375</v>
       </c>
       <c r="H22">
-        <v>1768.246829105571</v>
+        <v>3985981.675599563</v>
       </c>
       <c r="I22">
-        <v>-653.6545218644002</v>
+        <v>1115615.972464446</v>
       </c>
       <c r="J22">
-        <v>1412.94948526247</v>
+        <v>4842244.940466041</v>
       </c>
       <c r="K22">
-        <v>4391.34778606221</v>
+        <v>3987564.600493652</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1215,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.45176865911669</v>
+        <v>1116428.83298198</v>
       </c>
       <c r="G23">
-        <v>140.2817024690643</v>
+        <v>4841359.623556198</v>
       </c>
       <c r="H23">
-        <v>1792.523329633604</v>
+        <v>3986003.808621984</v>
       </c>
       <c r="I23">
-        <v>-611.4675478956729</v>
+        <v>1115664.143786907</v>
       </c>
       <c r="J23">
-        <v>1346.012423149178</v>
+        <v>4842196.28893108</v>
       </c>
       <c r="K23">
-        <v>4392.477702043181</v>
+        <v>3987565.423270713</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1250,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.2713304115361</v>
+        <v>1116426.609343384</v>
       </c>
       <c r="G24">
-        <v>157.9403107869412</v>
+        <v>4841376.136388645</v>
       </c>
       <c r="H24">
-        <v>1815.131191631721</v>
+        <v>3986024.420337248</v>
       </c>
       <c r="I24">
-        <v>-568.24175850427</v>
+        <v>1115713.501283866</v>
       </c>
       <c r="J24">
-        <v>1279.075361035885</v>
+        <v>4842147.63739612</v>
       </c>
       <c r="K24">
-        <v>4372.804049136331</v>
+        <v>3987551.097399959</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1285,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.29792382720511</v>
+        <v>1116424.596838305</v>
       </c>
       <c r="G25">
-        <v>175.5989191048182</v>
+        <v>4841392.649221092</v>
       </c>
       <c r="H25">
-        <v>1836.285123014922</v>
+        <v>3986043.706495772</v>
       </c>
       <c r="I25">
-        <v>-523.9515738161007</v>
+        <v>1115764.07416378</v>
       </c>
       <c r="J25">
-        <v>1212.138298922594</v>
+        <v>4842098.985861159</v>
       </c>
       <c r="K25">
-        <v>4332.326827341658</v>
+        <v>3987521.622881393</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1320,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.50076865474914</v>
+        <v>1116422.764076653</v>
       </c>
       <c r="G26">
-        <v>193.2575274226951</v>
+        <v>4841409.162053538</v>
       </c>
       <c r="H26">
-        <v>1856.160884326982</v>
+        <v>3986061.827339435</v>
       </c>
       <c r="I26">
-        <v>-478.570784076208</v>
+        <v>1115815.892354335</v>
       </c>
       <c r="J26">
-        <v>1145.201236809301</v>
+        <v>4842050.334326198</v>
       </c>
       <c r="K26">
-        <v>4271.046036659161</v>
+        <v>3987476.999715013</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1355,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.85512607477564</v>
+        <v>1116421.085829465</v>
       </c>
       <c r="G27">
-        <v>210.916135740572</v>
+        <v>4841425.674885985</v>
       </c>
       <c r="H27">
-        <v>1874.904173947324</v>
+        <v>3986078.915702271</v>
       </c>
       <c r="I27">
-        <v>-432.0725341385318</v>
+        <v>1115868.986520161</v>
       </c>
       <c r="J27">
-        <v>1078.264174696009</v>
+        <v>4842001.682791237</v>
       </c>
       <c r="K27">
-        <v>4188.961677088842</v>
+        <v>3987417.22790082</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1390,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.3408563037363</v>
+        <v>1116419.541557935</v>
       </c>
       <c r="G28">
-        <v>228.5747440584489</v>
+        <v>4841442.187718432</v>
       </c>
       <c r="H28">
-        <v>1892.637115663444</v>
+        <v>3986095.082925225</v>
       </c>
       <c r="I28">
-        <v>-384.4293075737459</v>
+        <v>1115923.388080975</v>
       </c>
       <c r="J28">
-        <v>1011.327112582717</v>
+        <v>4841953.031256276</v>
       </c>
       <c r="K28">
-        <v>4086.073748630702</v>
+        <v>3987342.307438814</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1425,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.94137557849993</v>
+        <v>1116418.114349731</v>
       </c>
       <c r="G29">
-        <v>246.2333523763259</v>
+        <v>4841458.700550879</v>
       </c>
       <c r="H29">
-        <v>1909.463085402587</v>
+        <v>3986110.423256714</v>
       </c>
       <c r="I29">
-        <v>-335.6129103857663</v>
+        <v>1115979.129230175</v>
       </c>
       <c r="J29">
-        <v>944.3900504694246</v>
+        <v>4841904.379721317</v>
       </c>
       <c r="K29">
-        <v>3962.382251284737</v>
+        <v>3987252.238328995</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1460,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.64288818653332</v>
+        <v>1116416.79013581</v>
       </c>
       <c r="G30">
-        <v>263.8919606942027</v>
+        <v>4841475.213383326</v>
       </c>
       <c r="H30">
-        <v>1925.470362583973</v>
+        <v>3986125.017181581</v>
       </c>
       <c r="I30">
-        <v>-285.5944543272949</v>
+        <v>1116036.242953894</v>
       </c>
       <c r="J30">
-        <v>877.4529883561323</v>
+        <v>4841855.728186356</v>
       </c>
       <c r="K30">
-        <v>3817.88718505095</v>
+        <v>3987147.020571362</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1495,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.43381179946577</v>
+        <v>1116415.557104366</v>
       </c>
       <c r="G31">
-        <v>281.5505690120797</v>
+        <v>4841491.726215773</v>
       </c>
       <c r="H31">
-        <v>1940.73493366554</v>
+        <v>3986138.933977109</v>
       </c>
       <c r="I31">
-        <v>-234.3443398045195</v>
+        <v>1116094.763050515</v>
       </c>
       <c r="J31">
-        <v>810.5159262428404</v>
+        <v>4841807.076651394</v>
       </c>
       <c r="K31">
-        <v>3652.588549929341</v>
+        <v>3987026.654165916</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1530,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.30434115670989</v>
+        <v>1116414.405255871</v>
       </c>
       <c r="G32">
-        <v>299.2091773299567</v>
+        <v>4841508.239048221</v>
       </c>
       <c r="H32">
-        <v>1955.322673660991</v>
+        <v>3986152.233701921</v>
       </c>
       <c r="I32">
-        <v>-181.8322383608617</v>
+        <v>1116154.724150678</v>
       </c>
       <c r="J32">
-        <v>743.578864129548</v>
+        <v>4841758.425116434</v>
       </c>
       <c r="K32">
-        <v>3466.486345919908</v>
+        <v>3986891.139112656</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1565,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.24611240678406</v>
+        <v>1116413.326060762</v>
       </c>
       <c r="G33">
-        <v>316.8677856478336</v>
+        <v>4841524.751880667</v>
       </c>
       <c r="H33">
-        <v>1969.291064227605</v>
+        <v>3986164.968762364</v>
       </c>
       <c r="I33">
-        <v>-128.0270747294009</v>
+        <v>1116216.16173777</v>
       </c>
       <c r="J33">
-        <v>676.6418020162561</v>
+        <v>4841709.773581474</v>
       </c>
       <c r="K33">
-        <v>3259.580573022654</v>
+        <v>3986740.475411583</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1600,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.25194178039792</v>
+        <v>1116412.31219294</v>
       </c>
       <c r="G34">
-        <v>334.5263939657105</v>
+        <v>4841541.264713114</v>
       </c>
       <c r="H34">
-        <v>1982.690561663635</v>
+        <v>3986177.185159733</v>
       </c>
       <c r="I34">
-        <v>-72.89700844335825</v>
+        <v>1116279.112168922</v>
       </c>
       <c r="J34">
-        <v>609.7047399029638</v>
+        <v>4841661.122046513</v>
       </c>
       <c r="K34">
-        <v>3031.871231237576</v>
+        <v>3986574.663062697</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1635,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.31561990307305</v>
+        <v>1116411.357320007</v>
       </c>
       <c r="G35">
-        <v>352.1850022835874</v>
+        <v>4841557.777545561</v>
       </c>
       <c r="H35">
-        <v>1995.565697078147</v>
+        <v>3986188.92349329</v>
       </c>
       <c r="I35">
-        <v>-16.40941499375301</v>
+        <v>1116343.612696528</v>
       </c>
       <c r="J35">
-        <v>542.7676777896714</v>
+        <v>4841612.470511552</v>
       </c>
       <c r="K35">
-        <v>2783.358320564676</v>
+        <v>3986393.702065997</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1670,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.43174827452171</v>
+        <v>1116410.455936503</v>
       </c>
       <c r="G36">
-        <v>369.8436106014644</v>
+        <v>4841574.290378008</v>
       </c>
       <c r="H36">
-        <v>2007.955969292037</v>
+        <v>3986200.219774334</v>
       </c>
       <c r="I36">
-        <v>41.46913347691585</v>
+        <v>1116409.701490287</v>
       </c>
       <c r="J36">
-        <v>475.8306156763795</v>
+        <v>4841563.818976591</v>
       </c>
       <c r="K36">
-        <v>2514.041841003953</v>
+        <v>3986197.592421485</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1705,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.59560806964365</v>
+        <v>1116409.603230111</v>
       </c>
       <c r="G37">
-        <v>387.5022189193413</v>
+        <v>4841590.803210456</v>
       </c>
       <c r="H37">
-        <v>2019.89657563229</v>
+        <v>3986211.106092464</v>
       </c>
       <c r="I37">
-        <v>100.7728879563866</v>
+        <v>1116477.417659791</v>
       </c>
       <c r="J37">
-        <v>408.8935535630872</v>
+        <v>4841515.167441631</v>
       </c>
       <c r="K37">
-        <v>2223.921792555407</v>
+        <v>3985986.334129158</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1740,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.80305397538681</v>
+        <v>1116408.794973388</v>
       </c>
       <c r="G38">
-        <v>405.1608272372182</v>
+        <v>4841607.316042902</v>
       </c>
       <c r="H38">
-        <v>2031.419014702256</v>
+        <v>3986221.611165137</v>
       </c>
       <c r="I38">
-        <v>161.5369428314611</v>
+        <v>1116546.801277672</v>
       </c>
       <c r="J38">
-        <v>341.9564914497952</v>
+        <v>4841466.515906671</v>
       </c>
       <c r="K38">
-        <v>1912.99817521904</v>
+        <v>3985759.927189019</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1775,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.05042760856289</v>
+        <v>1116408.027435467</v>
       </c>
       <c r="G39">
-        <v>422.8194355550951</v>
+        <v>4841623.828875349</v>
       </c>
       <c r="H39">
-        <v>2042.551587132764</v>
+        <v>3986231.760794195</v>
       </c>
       <c r="I39">
-        <v>223.7972566559283</v>
+        <v>1116617.893403311</v>
       </c>
       <c r="J39">
-        <v>275.0194293365029</v>
+        <v>4841417.86437171</v>
       </c>
       <c r="K39">
-        <v>1581.270988994847</v>
+        <v>3985518.371601066</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1810,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.33448638619767</v>
+        <v>1116407.297309523</v>
       </c>
       <c r="G40">
-        <v>440.478043872972</v>
+        <v>4841640.341707797</v>
       </c>
       <c r="H40">
-        <v>2053.319814357611</v>
+        <v>3986241.578247676</v>
       </c>
       <c r="I40">
-        <v>287.5906734298852</v>
+        <v>1116690.736107141</v>
       </c>
       <c r="J40">
-        <v>208.0823672232106</v>
+        <v>4841369.212836749</v>
       </c>
       <c r="K40">
-        <v>1228.740233882834</v>
+        <v>3985261.6673653</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1845,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.65234469249496</v>
+        <v>1116406.601652767</v>
       </c>
       <c r="G41">
-        <v>458.136652190849</v>
+        <v>4841656.854540243</v>
       </c>
       <c r="H41">
-        <v>2063.746791008008</v>
+        <v>3986251.084581083</v>
       </c>
       <c r="I41">
-        <v>352.9549444030324</v>
+        <v>1116765.372495538</v>
       </c>
       <c r="J41">
-        <v>141.1453051099186</v>
+        <v>4841320.561301788</v>
       </c>
       <c r="K41">
-        <v>855.4059098829975</v>
+        <v>3984989.81448172</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1880,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.00142490734594</v>
+        <v>1116405.937836509</v>
       </c>
       <c r="G42">
-        <v>475.7952605087258</v>
+        <v>4841673.367372691</v>
       </c>
       <c r="H42">
-        <v>2073.853483165582</v>
+        <v>3986260.298909313</v>
       </c>
       <c r="I42">
-        <v>419.9287504148681</v>
+        <v>1116841.846736336</v>
       </c>
       <c r="J42">
-        <v>74.20824299662635</v>
+        <v>4841271.909766828</v>
       </c>
       <c r="K42">
-        <v>461.2680169953377</v>
+        <v>3984702.812950327</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1915,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.37941640111824</v>
+        <v>1116405.303504341</v>
       </c>
       <c r="G43">
-        <v>493.4538688266029</v>
+        <v>4841689.880205138</v>
       </c>
       <c r="H43">
-        <v>2083.658982158955</v>
+        <v>3986269.238638035</v>
       </c>
       <c r="I43">
-        <v>488.551724784973</v>
+        <v>1116920.204084958</v>
       </c>
       <c r="J43">
-        <v>7.271180883334051</v>
+        <v>4841223.258231867</v>
       </c>
       <c r="K43">
-        <v>46.32655521985549</v>
+        <v>3984400.662771121</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1950,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.78424100857632</v>
+        <v>1116404.696536922</v>
       </c>
       <c r="G44">
-        <v>511.1124771444798</v>
+        <v>4841706.393037585</v>
       </c>
       <c r="H44">
-        <v>2093.180721626047</v>
+        <v>3986277.919661598</v>
       </c>
       <c r="I44">
-        <v>558.8644767669624</v>
+        <v>1117000.490911202</v>
       </c>
       <c r="J44">
-        <v>-59.66588122995793</v>
+        <v>4841174.606696906</v>
       </c>
       <c r="K44">
-        <v>-389.4184754434482</v>
+        <v>3984083.363944102</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1985,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.21402380610226</v>
+        <v>1116404.115022183</v>
       </c>
       <c r="G45">
-        <v>528.7710854623566</v>
+        <v>4841722.905870032</v>
       </c>
       <c r="H45">
-        <v>2102.434664043267</v>
+        <v>3986286.356533081</v>
       </c>
       <c r="I45">
-        <v>630.9086155799629</v>
+        <v>1117082.75472668</v>
       </c>
       <c r="J45">
-        <v>-126.6029433432502</v>
+        <v>4841125.955161946</v>
       </c>
       <c r="K45">
-        <v>-845.9670749945758</v>
+        <v>3983750.916469269</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2020,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.66706825586252</v>
+        <v>1116403.557229971</v>
       </c>
       <c r="G46">
-        <v>546.4296937802336</v>
+        <v>4841739.418702478</v>
       </c>
       <c r="H46">
-        <v>2111.435461734812</v>
+        <v>3986294.56261109</v>
       </c>
       <c r="I46">
-        <v>704.7267750318416</v>
+        <v>1117167.044212933</v>
       </c>
       <c r="J46">
-        <v>-193.5400054565425</v>
+        <v>4841077.303626984</v>
       </c>
       <c r="K46">
-        <v>-1323.319243433527</v>
+        <v>3983403.320346623</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2055,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.14183496624436</v>
+        <v>1116403.021590397</v>
       </c>
       <c r="G47">
-        <v>564.0883020981105</v>
+        <v>4841755.931534925</v>
       </c>
       <c r="H47">
-        <v>2120.196596440524</v>
+        <v>3986302.550187003</v>
       </c>
       <c r="I47">
-        <v>780.3626387487612</v>
+        <v>1117253.409250241</v>
       </c>
       <c r="J47">
-        <v>-260.4770675698348</v>
+        <v>4841028.652092025</v>
       </c>
       <c r="K47">
-        <v>-1821.474980760301</v>
+        <v>3983040.575576163</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2090,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.63692346291189</v>
+        <v>1116402.506675238</v>
       </c>
       <c r="G48">
-        <v>581.7469104159874</v>
+        <v>4841772.444367372</v>
       </c>
       <c r="H48">
-        <v>2128.730500779987</v>
+        <v>3986310.33059571</v>
       </c>
       <c r="I48">
-        <v>857.8609660259909</v>
+        <v>1117341.900947137</v>
       </c>
       <c r="J48">
-        <v>-327.4141296831265</v>
+        <v>4840980.000557064</v>
       </c>
       <c r="K48">
-        <v>-2340.434286974893</v>
+        <v>3982662.68215789</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2125,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.15105647891161</v>
+        <v>1116402.011181922</v>
       </c>
       <c r="G49">
-        <v>599.4055187338644</v>
+        <v>4841788.957199819</v>
       </c>
       <c r="H49">
-        <v>2137.048664359712</v>
+        <v>3986317.914312349</v>
       </c>
       <c r="I49">
-        <v>937.2676183152696</v>
+        <v>1117432.571670659</v>
       </c>
       <c r="J49">
-        <v>-394.3511917964188</v>
+        <v>4840931.349022103</v>
       </c>
       <c r="K49">
-        <v>-2880.197162077311</v>
+        <v>3982269.640091805</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2160,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.68306636258198</v>
+        <v>1116401.533919662</v>
       </c>
       <c r="G50">
-        <v>617.0641270517414</v>
+        <v>4841805.470032266</v>
       </c>
       <c r="H50">
-        <v>2145.161726795985</v>
+        <v>3986325.31103712</v>
       </c>
       <c r="I50">
-        <v>1018.629586364391</v>
+        <v>1117525.475077332</v>
       </c>
       <c r="J50">
-        <v>-461.2882539097111</v>
+        <v>4840882.697487142</v>
       </c>
       <c r="K50">
-        <v>-3440.763606067553</v>
+        <v>3981861.449377905</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2195,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.2318832739901</v>
+        <v>1116401.073797422</v>
       </c>
       <c r="G51">
-        <v>634.7227353696182</v>
+        <v>4841821.982864713</v>
       </c>
       <c r="H51">
-        <v>2153.079559543018</v>
+        <v>3986332.529769883</v>
       </c>
       <c r="I51">
-        <v>1101.995018025083</v>
+        <v>1117620.666144924</v>
       </c>
       <c r="J51">
-        <v>-528.2253160230034</v>
+        <v>4840834.045952181</v>
       </c>
       <c r="K51">
-        <v>-4022.133618945618</v>
+        <v>3981438.110016192</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2230,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.79652489830433</v>
+        <v>1116400.629813426</v>
       </c>
       <c r="G52">
-        <v>652.3813436874952</v>
+        <v>4841838.49569716</v>
       </c>
       <c r="H52">
-        <v>2160.811338105137</v>
+        <v>3986339.578875995</v>
       </c>
       <c r="I52">
-        <v>1187.41324674563</v>
+        <v>1117718.201204982</v>
       </c>
       <c r="J52">
-        <v>-595.1623781362957</v>
+        <v>4840785.394417222</v>
       </c>
       <c r="K52">
-        <v>-4624.307200711504</v>
+        <v>3980999.622006666</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2265,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.37608745100082</v>
+        <v>1116400.201045981</v>
       </c>
       <c r="G53">
-        <v>670.0399520053721</v>
+        <v>4841855.008529607</v>
       </c>
       <c r="H53">
-        <v>2168.365605957925</v>
+        <v>3986346.466144593</v>
       </c>
       <c r="I53">
-        <v>1274.934820765089</v>
+        <v>1117818.137976163</v>
       </c>
       <c r="J53">
-        <v>-662.0994402495874</v>
+        <v>4840736.742882261</v>
       </c>
       <c r="K53">
-        <v>-5247.28435136521</v>
+        <v>3980545.985349327</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2300,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.96973778748207</v>
+        <v>1116399.786645437</v>
       </c>
       <c r="G54">
-        <v>687.698560323249</v>
+        <v>4841871.521362055</v>
       </c>
       <c r="H54">
-        <v>2175.750331295074</v>
+        <v>3986353.198840324</v>
       </c>
       <c r="I54">
-        <v>1364.611533026407</v>
+        <v>1117920.535598394</v>
       </c>
       <c r="J54">
-        <v>-729.0365023628797</v>
+        <v>4840688.0913473</v>
       </c>
       <c r="K54">
-        <v>-5891.065070906742</v>
+        <v>3980077.200044174</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2335,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G55">
-        <v>-76.80169735606756</v>
+        <v>4841127.930445689</v>
       </c>
       <c r="H55">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I55">
-        <v>-601.3486535319499</v>
+        <v>1114861.542051387</v>
       </c>
       <c r="J55">
-        <v>2326.181057864357</v>
+        <v>4843222.65031115</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984368.582395459</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2370,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G56">
-        <v>-76.80169735606756</v>
+        <v>4841127.930445689</v>
       </c>
       <c r="H56">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I56">
-        <v>-589.4764298777292</v>
+        <v>1114891.156052754</v>
       </c>
       <c r="J56">
-        <v>2269.594856370378</v>
+        <v>4843173.998729186</v>
       </c>
       <c r="K56">
-        <v>392.3387979558447</v>
+        <v>3984672.378254859</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2405,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G57">
-        <v>-76.80169735606756</v>
+        <v>4841127.930445689</v>
       </c>
       <c r="H57">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I57">
-        <v>-577.3118636382688</v>
+        <v>1114921.499271662</v>
       </c>
       <c r="J57">
-        <v>2213.008654876399</v>
+        <v>4843125.347147222</v>
       </c>
       <c r="K57">
-        <v>765.113785029124</v>
+        <v>3984961.025460159</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2440,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G58">
-        <v>-76.80169735606756</v>
+        <v>4841127.930445689</v>
       </c>
       <c r="H58">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I58">
-        <v>-564.8477561463574</v>
+        <v>1114952.58966442</v>
       </c>
       <c r="J58">
-        <v>2156.42245338242</v>
+        <v>4843076.695565258</v>
       </c>
       <c r="K58">
-        <v>1118.324961219841</v>
+        <v>3985234.524011359</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2475,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G59">
-        <v>-76.80169735606756</v>
+        <v>4841127.930445689</v>
       </c>
       <c r="H59">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I59">
-        <v>-552.0767314742264</v>
+        <v>1114984.445629496</v>
       </c>
       <c r="J59">
-        <v>2099.836251888442</v>
+        <v>4843028.043983294</v>
       </c>
       <c r="K59">
-        <v>1451.972326527992</v>
+        <v>3985492.873908459</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2510,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G60">
-        <v>-76.80169735606756</v>
+        <v>4841127.930445689</v>
       </c>
       <c r="H60">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I60">
-        <v>-538.9912320686713</v>
+        <v>1115017.086018406</v>
       </c>
       <c r="J60">
-        <v>2043.250050394463</v>
+        <v>4842979.39240133</v>
       </c>
       <c r="K60">
-        <v>1766.055880953582</v>
+        <v>3985736.07515146</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2545,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G61">
-        <v>-76.80169735606756</v>
+        <v>4841127.930445689</v>
       </c>
       <c r="H61">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I61">
-        <v>-525.5835142786931</v>
+        <v>1115050.530146864</v>
       </c>
       <c r="J61">
-        <v>1986.663848900484</v>
+        <v>4842930.740819366</v>
       </c>
       <c r="K61">
-        <v>2060.575624496607</v>
+        <v>3985964.12774036</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2580,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G62">
-        <v>-76.80169735606756</v>
+        <v>4841127.930445689</v>
       </c>
       <c r="H62">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I62">
-        <v>-511.8456437730109</v>
+        <v>1115084.797806217</v>
       </c>
       <c r="J62">
-        <v>1930.077647406505</v>
+        <v>4842882.089237401</v>
       </c>
       <c r="K62">
-        <v>2335.531557157069</v>
+        <v>3986177.031675161</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2615,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>213.3392547295645</v>
+        <v>1116577.730070121</v>
       </c>
       <c r="G63">
-        <v>-64.11957529702562</v>
+        <v>4841144.443276385</v>
       </c>
       <c r="H63">
-        <v>722.0472040156583</v>
+        <v>3985232.364647754</v>
       </c>
       <c r="I63">
-        <v>-497.7694908447355</v>
+        <v>1115119.909275156</v>
       </c>
       <c r="J63">
-        <v>1873.491445912527</v>
+        <v>4842833.437655438</v>
       </c>
       <c r="K63">
-        <v>2590.923678934966</v>
+        <v>3986374.786955861</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2650,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>165.5761490720908</v>
+        <v>1116529.049540087</v>
       </c>
       <c r="G64">
-        <v>-51.43745323798366</v>
+        <v>4841160.95610708</v>
       </c>
       <c r="H64">
-        <v>889.5572966513533</v>
+        <v>3985431.619256336</v>
       </c>
       <c r="I64">
-        <v>-483.3467256004244</v>
+        <v>1115155.885331716</v>
       </c>
       <c r="J64">
-        <v>1816.905244418548</v>
+        <v>4842784.786073474</v>
       </c>
       <c r="K64">
-        <v>2826.751989830298</v>
+        <v>3986557.393582462</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2685,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>137.5177205543547</v>
+        <v>1116500.45217077</v>
       </c>
       <c r="G65">
-        <v>-38.75533117894172</v>
+        <v>4841177.468937776</v>
       </c>
       <c r="H65">
-        <v>989.3348746165419</v>
+        <v>3985550.305491475</v>
       </c>
       <c r="I65">
-        <v>-468.568813030673</v>
+        <v>1115192.747265572</v>
       </c>
       <c r="J65">
-        <v>1760.319042924569</v>
+        <v>4842736.13449151</v>
       </c>
       <c r="K65">
-        <v>3043.016489843068</v>
+        <v>3986724.851554963</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2720,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>119.8051820034948</v>
+        <v>1116482.399413249</v>
       </c>
       <c r="G66">
-        <v>-26.07320911989976</v>
+        <v>4841193.981768472</v>
       </c>
       <c r="H66">
-        <v>1060.639165879574</v>
+        <v>3985635.122522033</v>
       </c>
       <c r="I66">
-        <v>-453.4270079593215</v>
+        <v>1115230.516890636</v>
       </c>
       <c r="J66">
-        <v>1703.73284143059</v>
+        <v>4842687.482909545</v>
       </c>
       <c r="K66">
-        <v>3239.717178973275</v>
+        <v>3986877.160873363</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2755,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>107.4525295175401</v>
+        <v>1116469.809493434</v>
       </c>
       <c r="G67">
-        <v>-13.39108706085781</v>
+        <v>4841210.494599167</v>
       </c>
       <c r="H67">
-        <v>1116.163779284796</v>
+        <v>3985701.169498288</v>
       </c>
       <c r="I67">
-        <v>-437.9123498682933</v>
+        <v>1115269.21655797</v>
       </c>
       <c r="J67">
-        <v>1647.146639936612</v>
+        <v>4842638.831327582</v>
       </c>
       <c r="K67">
-        <v>3416.854057220917</v>
+        <v>3987014.321537664</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2790,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>98.23708084328278</v>
+        <v>1116460.417036226</v>
       </c>
       <c r="G68">
-        <v>-0.7089650018158652</v>
+        <v>4841227.007429863</v>
       </c>
       <c r="H68">
-        <v>1161.642744545268</v>
+        <v>3985755.267094911</v>
       </c>
       <c r="I68">
-        <v>-422.0156575949974</v>
+        <v>1115308.869169009</v>
       </c>
       <c r="J68">
-        <v>1590.560438442633</v>
+        <v>4842590.179745618</v>
       </c>
       <c r="K68">
-        <v>3574.427124585995</v>
+        <v>3987136.333547866</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2825,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>91.03188687926843</v>
+        <v>1116453.073446308</v>
       </c>
       <c r="G69">
-        <v>11.97315705722609</v>
+        <v>4841243.520260558</v>
       </c>
       <c r="H69">
-        <v>1200.160108317326</v>
+        <v>3985801.083810317</v>
       </c>
       <c r="I69">
-        <v>-405.7275238991602</v>
+        <v>1115349.498189115</v>
       </c>
       <c r="J69">
-        <v>1533.974236948654</v>
+        <v>4842541.528163653</v>
       </c>
       <c r="K69">
-        <v>3712.43638106851</v>
+        <v>3987243.196903967</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2860,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>85.20236033500575</v>
+        <v>1116447.13194736</v>
       </c>
       <c r="G70">
-        <v>24.65527911626804</v>
+        <v>4841260.033091255</v>
       </c>
       <c r="H70">
-        <v>1233.566906332194</v>
+        <v>3985840.821466465</v>
       </c>
       <c r="I70">
-        <v>-389.0383098958712</v>
+        <v>1115391.127661463</v>
       </c>
       <c r="J70">
-        <v>1477.388035454675</v>
+        <v>4842492.876581689</v>
       </c>
       <c r="K70">
-        <v>3830.88182666846</v>
+        <v>3987334.911605968</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2895,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>80.36177612659424</v>
+        <v>1116442.198386158</v>
       </c>
       <c r="G71">
-        <v>37.33740117530999</v>
+        <v>4841276.54592195</v>
       </c>
       <c r="H71">
-        <v>1263.061803253105</v>
+        <v>3985875.905884655</v>
       </c>
       <c r="I71">
-        <v>-371.9381393515467</v>
+        <v>1115433.782221269</v>
       </c>
       <c r="J71">
-        <v>1420.801833960697</v>
+        <v>4842444.224999726</v>
       </c>
       <c r="K71">
-        <v>3929.763461385848</v>
+        <v>3987411.477653869</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2930,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>76.25974521867397</v>
+        <v>1116438.017564244</v>
       </c>
       <c r="G72">
-        <v>50.01952323435195</v>
+        <v>4841293.058752645</v>
       </c>
       <c r="H72">
-        <v>1289.465671222356</v>
+        <v>3985907.313498934</v>
       </c>
       <c r="I72">
-        <v>-354.4168928394365</v>
+        <v>1115477.487110369</v>
       </c>
       <c r="J72">
-        <v>1364.215632466718</v>
+        <v>4842395.573417762</v>
       </c>
       <c r="K72">
-        <v>4009.081285220671</v>
+        <v>3987472.895047671</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2965,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>72.72624578713859</v>
+        <v>1116434.416194048</v>
       </c>
       <c r="G73">
-        <v>62.7016452933939</v>
+        <v>4841309.571583341</v>
       </c>
       <c r="H73">
-        <v>1313.365365263338</v>
+        <v>3985935.742378092</v>
       </c>
       <c r="I73">
-        <v>-336.4642017512168</v>
+        <v>1115522.268192156</v>
       </c>
       <c r="J73">
-        <v>1307.629430972739</v>
+        <v>4842346.921835797</v>
       </c>
       <c r="K73">
-        <v>4068.83529817293</v>
+        <v>3987519.163787372</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3000,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>69.64131820136411</v>
+        <v>1116431.272011777</v>
       </c>
       <c r="G74">
-        <v>75.38376735243584</v>
+        <v>4841326.084414037</v>
       </c>
       <c r="H74">
-        <v>1335.195006851347</v>
+        <v>3985961.708913133</v>
       </c>
       <c r="I74">
-        <v>-318.0694421611228</v>
+        <v>1115568.151966884</v>
       </c>
       <c r="J74">
-        <v>1251.04322947876</v>
+        <v>4842298.270253833</v>
       </c>
       <c r="K74">
-        <v>4109.025500242626</v>
+        <v>3987550.283872974</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3035,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>66.91761871384838</v>
+        <v>1116428.495996004</v>
       </c>
       <c r="G75">
-        <v>88.0658894114778</v>
+        <v>4841342.597244732</v>
       </c>
       <c r="H75">
-        <v>1355.284778834046</v>
+        <v>3985985.605859221</v>
       </c>
       <c r="I75">
-        <v>-299.221728538991</v>
+        <v>1115615.165587351</v>
       </c>
       <c r="J75">
-        <v>1194.457027984782</v>
+        <v>4842249.61867187</v>
       </c>
       <c r="K75">
-        <v>4129.651891429758</v>
+        <v>3987566.255304476</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3070,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>64.48985755452213</v>
+        <v>1116426.021602883</v>
       </c>
       <c r="G76">
-        <v>100.7480114705197</v>
+        <v>4841359.110075428</v>
       </c>
       <c r="H76">
-        <v>1373.891667367612</v>
+        <v>3986007.738903465</v>
       </c>
       <c r="I76">
-        <v>-279.9099073084928</v>
+        <v>1115663.336874972</v>
       </c>
       <c r="J76">
-        <v>1137.870826490803</v>
+        <v>4842200.967089905</v>
       </c>
       <c r="K76">
-        <v>4130.714471734325</v>
+        <v>3987567.078081877</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3105,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>62.30813073897701</v>
+        <v>1116423.797969887</v>
       </c>
       <c r="G77">
-        <v>113.4301335295617</v>
+        <v>4841375.622906124</v>
       </c>
       <c r="H77">
-        <v>1391.219616579051</v>
+        <v>3986028.350639053</v>
       </c>
       <c r="I77">
-        <v>-260.1225502467436</v>
+        <v>1115712.694336233</v>
       </c>
       <c r="J77">
-        <v>1081.284624996824</v>
+        <v>4842152.315507941</v>
       </c>
       <c r="K77">
-        <v>4112.21324115633</v>
+        <v>3987552.752205179</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3140,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>60.3335579356493</v>
+        <v>1116421.785469876</v>
       </c>
       <c r="G78">
-        <v>126.1122555886036</v>
+        <v>4841392.135736819</v>
       </c>
       <c r="H78">
-        <v>1407.433190806499</v>
+        <v>3986047.636816594</v>
       </c>
       <c r="I78">
-        <v>-239.8479477213832</v>
+        <v>1115763.267179569</v>
       </c>
       <c r="J78">
-        <v>1024.698423502845</v>
+        <v>4842103.663925977</v>
       </c>
       <c r="K78">
-        <v>4074.14819969577</v>
+        <v>3987523.277674381</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3175,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>58.53534070303865</v>
+        <v>1116419.952712839</v>
       </c>
       <c r="G79">
-        <v>138.7943776476456</v>
+        <v>4841408.648567515</v>
       </c>
       <c r="H79">
-        <v>1422.667102911179</v>
+        <v>3986065.757678124</v>
       </c>
       <c r="I79">
-        <v>-219.0741017611282</v>
+        <v>1115815.085332647</v>
       </c>
       <c r="J79">
-        <v>968.1122220088665</v>
+        <v>4842055.012344014</v>
       </c>
       <c r="K79">
-        <v>4016.519347352647</v>
+        <v>3987478.654489483</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3210,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>56.88872560191628</v>
+        <v>1116418.274469877</v>
       </c>
       <c r="G80">
-        <v>151.4764997066875</v>
+        <v>4841425.16139821</v>
       </c>
       <c r="H80">
-        <v>1437.03302440449</v>
+        <v>3986082.846057809</v>
       </c>
       <c r="I80">
-        <v>-197.7887189556898</v>
+        <v>1115868.179460072</v>
       </c>
       <c r="J80">
-        <v>911.5260205148877</v>
+        <v>4842006.360762049</v>
       </c>
       <c r="K80">
-        <v>3939.32668412696</v>
+        <v>3987418.882650485</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3245,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>55.37356094677795</v>
+        <v>1116416.730202236</v>
       </c>
       <c r="G81">
-        <v>164.1586217657295</v>
+        <v>4841441.674228906</v>
       </c>
       <c r="H81">
-        <v>1450.624557891908</v>
+        <v>3986099.013296705</v>
       </c>
       <c r="I81">
-        <v>-175.9792031808607</v>
+        <v>1115922.58098154</v>
       </c>
       <c r="J81">
-        <v>854.9398190209091</v>
+        <v>4841957.709180085</v>
       </c>
       <c r="K81">
-        <v>3842.570210018709</v>
+        <v>3987343.962157387</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3280,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>53.97325317402878</v>
+        <v>1116415.302997626</v>
       </c>
       <c r="G82">
-        <v>176.8407438247715</v>
+        <v>4841458.187059602</v>
       </c>
       <c r="H82">
-        <v>1463.520936554223</v>
+        <v>3986114.35364332</v>
       </c>
       <c r="I82">
-        <v>-153.6326481444628</v>
+        <v>1115978.322090425</v>
       </c>
       <c r="J82">
-        <v>798.3536175269303</v>
+        <v>4841909.057598121</v>
       </c>
       <c r="K82">
-        <v>3726.249925027894</v>
+        <v>3987253.89301019</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3315,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>52.67399841831891</v>
+        <v>1116413.97878704</v>
       </c>
       <c r="G83">
-        <v>189.5228658838134</v>
+        <v>4841474.699890297</v>
       </c>
       <c r="H83">
-        <v>1475.789822751227</v>
+        <v>3986128.947582577</v>
       </c>
       <c r="I83">
-        <v>-130.7358297487474</v>
+        <v>1116035.435772836</v>
       </c>
       <c r="J83">
-        <v>741.7674160329514</v>
+        <v>4841860.406016157</v>
       </c>
       <c r="K83">
-        <v>3590.365829154515</v>
+        <v>3987148.675208893</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3350,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>51.46420750649893</v>
+        <v>1116412.745758701</v>
       </c>
       <c r="G84">
-        <v>202.2049879428554</v>
+        <v>4841491.212720993</v>
       </c>
       <c r="H84">
-        <v>1487.489456819138</v>
+        <v>3986142.864391827</v>
       </c>
       <c r="I84">
-        <v>-107.2751982647242</v>
+        <v>1116093.955827132</v>
       </c>
       <c r="J84">
-        <v>685.1812145389728</v>
+        <v>4841811.754434193</v>
       </c>
       <c r="K84">
-        <v>3434.917922398573</v>
+        <v>3987028.308753495</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3385,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>50.33406938339193</v>
+        <v>1116411.593913106</v>
       </c>
       <c r="G85">
-        <v>214.8871100018973</v>
+        <v>4841507.725551689</v>
       </c>
       <c r="H85">
-        <v>1498.670329109136</v>
+        <v>3986156.164129752</v>
       </c>
       <c r="I85">
-        <v>-83.2368703137921</v>
+        <v>1116153.916883928</v>
       </c>
       <c r="J85">
-        <v>628.5950130449939</v>
+        <v>4841763.102852229</v>
       </c>
       <c r="K85">
-        <v>3259.906204760067</v>
+        <v>3986892.793643998</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3420,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>49.27521525475254</v>
+        <v>1116410.514720715</v>
       </c>
       <c r="G86">
-        <v>227.5692320609392</v>
+        <v>4841524.238382384</v>
       </c>
       <c r="H86">
-        <v>1509.376496827427</v>
+        <v>3986168.899202753</v>
       </c>
       <c r="I86">
-        <v>-58.60662065192438</v>
+        <v>1116215.354426584</v>
       </c>
       <c r="J86">
-        <v>572.0088115510154</v>
+        <v>4841714.451270266</v>
       </c>
       <c r="K86">
-        <v>3065.330676238998</v>
+        <v>3986742.1298804</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3455,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>48.2804571059168</v>
+        <v>1116409.500855446</v>
       </c>
       <c r="G87">
-        <v>240.2513541199812</v>
+        <v>4841540.75121308</v>
       </c>
       <c r="H87">
-        <v>1519.646632546129</v>
+        <v>3986181.115612167</v>
       </c>
       <c r="I87">
-        <v>-33.36987375154734</v>
+        <v>1116278.304812207</v>
       </c>
       <c r="J87">
-        <v>515.4226100570364</v>
+        <v>4841665.799688301</v>
       </c>
       <c r="K87">
-        <v>2851.191336835363</v>
+        <v>3986576.317462703</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3490,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>47.34358189286828</v>
+        <v>1116408.545984918</v>
       </c>
       <c r="G88">
-        <v>252.9334761790232</v>
+        <v>4841557.264043775</v>
       </c>
       <c r="H88">
-        <v>1529.514867435905</v>
+        <v>3986192.853957299</v>
       </c>
       <c r="I88">
-        <v>-7.511695176130052</v>
+        <v>1116342.805293162</v>
       </c>
       <c r="J88">
-        <v>458.8364085630576</v>
+        <v>4841617.148106337</v>
       </c>
       <c r="K88">
-        <v>2617.488186549166</v>
+        <v>3986395.356390906</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3525,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>46.45918792498146</v>
+        <v>1116407.644603684</v>
       </c>
       <c r="G89">
-        <v>265.6155982380652</v>
+        <v>4841573.776874471</v>
       </c>
       <c r="H89">
-        <v>1539.01147563601</v>
+        <v>3986204.15024948</v>
       </c>
       <c r="I89">
-        <v>18.98321725761888</v>
+        <v>1116408.894039121</v>
       </c>
       <c r="J89">
-        <v>402.250207069079</v>
+        <v>4841568.496524373</v>
       </c>
       <c r="K89">
-        <v>2364.221225380405</v>
+        <v>3986199.246665009</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3560,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>45.6225535884842</v>
+        <v>1116406.791899439</v>
       </c>
       <c r="G90">
-        <v>278.297720297107</v>
+        <v>4841590.289705167</v>
       </c>
       <c r="H90">
-        <v>1548.16343437651</v>
+        <v>3986215.036578345</v>
       </c>
       <c r="I90">
-        <v>46.13054253517635</v>
+        <v>1116476.61015965</v>
       </c>
       <c r="J90">
-        <v>345.6640055751001</v>
+        <v>4841519.844942409</v>
       </c>
       <c r="K90">
-        <v>2091.39045332908</v>
+        <v>3985987.988285013</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3595,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>44.82953112057948</v>
+        <v>1116405.983644751</v>
       </c>
       <c r="G91">
-        <v>290.979842356149</v>
+        <v>4841606.802535862</v>
       </c>
       <c r="H91">
-        <v>1556.994885975644</v>
+        <v>3986225.541661376</v>
       </c>
       <c r="I91">
-        <v>73.94634572261261</v>
+        <v>1116545.993727349</v>
       </c>
       <c r="J91">
-        <v>289.0778040811215</v>
+        <v>4841471.193360445</v>
       </c>
       <c r="K91">
-        <v>1798.995870395192</v>
+        <v>3985761.581250915</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3630,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>44.07645997609373</v>
+        <v>1116405.216108763</v>
       </c>
       <c r="G92">
-        <v>303.661964415191</v>
+        <v>4841623.315366558</v>
       </c>
       <c r="H92">
-        <v>1565.527521643916</v>
+        <v>3986235.691300442</v>
       </c>
       <c r="I92">
-        <v>102.4470874734695</v>
+        <v>1116617.08580157</v>
       </c>
       <c r="J92">
-        <v>232.4916025871427</v>
+        <v>4841422.541778481</v>
       </c>
       <c r="K92">
-        <v>1487.037476578738</v>
+        <v>3985520.025562719</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3665,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>43.36009565579182</v>
+        <v>1116404.485984657</v>
       </c>
       <c r="G93">
-        <v>316.3440864742329</v>
+        <v>4841639.828197254</v>
       </c>
       <c r="H93">
-        <v>1573.78090245741</v>
+        <v>3986245.508763603</v>
       </c>
       <c r="I93">
-        <v>131.6496337697399</v>
+        <v>1116689.928452716</v>
       </c>
       <c r="J93">
-        <v>175.9054010931638</v>
+        <v>4841373.890196517</v>
       </c>
       <c r="K93">
-        <v>1155.515271879721</v>
+        <v>3985263.321220422</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3700,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>42.67755083857267</v>
+        <v>1116403.790329653</v>
       </c>
       <c r="G94">
-        <v>329.0262085332749</v>
+        <v>4841656.341027949</v>
       </c>
       <c r="H94">
-        <v>1581.772729452903</v>
+        <v>3986255.015106383</v>
       </c>
       <c r="I94">
-        <v>161.5712659027055</v>
+        <v>1116764.564787132</v>
       </c>
       <c r="J94">
-        <v>119.3191995991852</v>
+        <v>4841325.238614553</v>
       </c>
       <c r="K94">
-        <v>804.4292562981416</v>
+        <v>3984991.468224026</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3735,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>42.02624638103794</v>
+        <v>1116403.126515067</v>
       </c>
       <c r="G95">
-        <v>341.7083305923168</v>
+        <v>4841672.853858645</v>
       </c>
       <c r="H95">
-        <v>1589.519072225902</v>
+        <v>3986264.229443698</v>
       </c>
       <c r="I95">
-        <v>192.2296906995492</v>
+        <v>1116841.038972619</v>
       </c>
       <c r="J95">
-        <v>62.73299810520633</v>
+        <v>4841276.587032589</v>
       </c>
       <c r="K95">
-        <v>433.779429833997</v>
+        <v>3984704.466573529</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3770,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>41.40387028804842</v>
+        <v>1116402.492184496</v>
       </c>
       <c r="G96">
-        <v>354.3904526513588</v>
+        <v>4841689.366689341</v>
       </c>
       <c r="H96">
-        <v>1597.034563454756</v>
+        <v>3986273.169181237</v>
       </c>
       <c r="I96">
-        <v>223.6430510017813</v>
+        <v>1116919.396264568</v>
       </c>
       <c r="J96">
-        <v>6.146796611227471</v>
+        <v>4841227.935450625</v>
       </c>
       <c r="K96">
-        <v>43.56579248728881</v>
+        <v>3984402.316268933</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3805,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>40.80834316624063</v>
+        <v>1116401.885218606</v>
       </c>
       <c r="G97">
-        <v>367.0725747104007</v>
+        <v>4841705.879520036</v>
       </c>
       <c r="H97">
-        <v>1604.332565269526</v>
+        <v>3986281.850213359</v>
       </c>
       <c r="I97">
-        <v>255.8299364016941</v>
+        <v>1116999.683032745</v>
       </c>
       <c r="J97">
-        <v>-50.43940488275113</v>
+        <v>4841179.28386866</v>
       </c>
       <c r="K97">
-        <v>-366.211655741982</v>
+        <v>3984085.017310237</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3840,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>40.23778898397787</v>
+        <v>1116401.30370533</v>
       </c>
       <c r="G98">
-        <v>379.7546967694427</v>
+        <v>4841722.392350731</v>
       </c>
       <c r="H98">
-        <v>1611.425312218553</v>
+        <v>3986290.28709316</v>
       </c>
       <c r="I98">
-        <v>288.8093942431883</v>
+        <v>1117081.946788725</v>
       </c>
       <c r="J98">
-        <v>-107.02560637673</v>
+        <v>4841130.632286697</v>
       </c>
       <c r="K98">
-        <v>-795.5529148538177</v>
+        <v>3983752.569697441</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3875,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>39.69051020082804</v>
+        <v>1116400.745914524</v>
       </c>
       <c r="G99">
-        <v>392.4368188284847</v>
+        <v>4841738.905181427</v>
       </c>
       <c r="H99">
-        <v>1618.324034675127</v>
+        <v>3986298.49317926</v>
       </c>
       <c r="I99">
-        <v>322.6009408934846</v>
+        <v>1117166.236214015</v>
       </c>
       <c r="J99">
-        <v>-163.6118078707088</v>
+        <v>4841081.980704732</v>
       </c>
       <c r="K99">
-        <v>-1244.457984848218</v>
+        <v>3983404.973430545</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3910,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>39.16496651544809</v>
+        <v>1116400.210276298</v>
       </c>
       <c r="G100">
-        <v>405.1189408875265</v>
+        <v>4841755.418012123</v>
       </c>
       <c r="H100">
-        <v>1625.039065810216</v>
+        <v>3986306.480763049</v>
       </c>
       <c r="I100">
-        <v>357.2245732923915</v>
+        <v>1117252.601188858</v>
       </c>
       <c r="J100">
-        <v>-220.1980093646877</v>
+        <v>4841033.329122768</v>
       </c>
       <c r="K100">
-        <v>-1712.926865725182</v>
+        <v>3983042.228509549</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3945,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>38.65975662586742</v>
+        <v>1116399.695362436</v>
       </c>
       <c r="G101">
-        <v>417.8010629465685</v>
+        <v>4841771.930842819</v>
       </c>
       <c r="H101">
-        <v>1631.579934689449</v>
+        <v>3986314.261179428</v>
       </c>
       <c r="I101">
-        <v>392.7007807859636</v>
+        <v>1117341.092821752</v>
       </c>
       <c r="J101">
-        <v>-276.784210858666</v>
+        <v>4840984.677540804</v>
       </c>
       <c r="K101">
-        <v>-2200.959557484706</v>
+        <v>3982664.334934453</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3980,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>38.17360251030941</v>
+        <v>1116399.199870368</v>
       </c>
       <c r="G102">
-        <v>430.4831850056105</v>
+        <v>4841788.443673514</v>
       </c>
       <c r="H102">
-        <v>1637.955447599689</v>
+        <v>3986321.844903545</v>
       </c>
       <c r="I102">
-        <v>429.0505572515528</v>
+        <v>1117431.763479696</v>
       </c>
       <c r="J102">
-        <v>-333.3704123526449</v>
+        <v>4840936.025958841</v>
       </c>
       <c r="K102">
-        <v>-2708.556060126797</v>
+        <v>3982271.292705257</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4015,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>37.70533582706837</v>
+        <v>1116398.722609309</v>
       </c>
       <c r="G103">
-        <v>443.1653070646524</v>
+        <v>4841804.95650421</v>
       </c>
       <c r="H103">
-        <v>1644.173759347021</v>
+        <v>3986329.241635609</v>
       </c>
       <c r="I103">
-        <v>466.2954135214258</v>
+        <v>1117524.666819175</v>
       </c>
       <c r="J103">
-        <v>-389.9566138466238</v>
+        <v>4840887.374376876</v>
       </c>
       <c r="K103">
-        <v>-3235.716373651452</v>
+        <v>3981863.101821961</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4050,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>37.25388610397093</v>
+        <v>1116398.262488229</v>
       </c>
       <c r="G104">
-        <v>455.8474291236943</v>
+        <v>4841821.469334906</v>
       </c>
       <c r="H104">
-        <v>1650.242435974501</v>
+        <v>3986336.46037549</v>
       </c>
       <c r="I104">
-        <v>504.4573901123049</v>
+        <v>1117619.857817921</v>
       </c>
       <c r="J104">
-        <v>-446.5428153406027</v>
+        <v>4840838.722794912</v>
       </c>
       <c r="K104">
-        <v>-3782.440498058671</v>
+        <v>3981439.762284566</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4085,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>36.81827044566932</v>
+        <v>1116397.81850535</v>
       </c>
       <c r="G105">
-        <v>468.5295511827363</v>
+        <v>4841837.982165601</v>
       </c>
       <c r="H105">
-        <v>1656.168510109669</v>
+        <v>3986343.509488553</v>
       </c>
       <c r="I105">
-        <v>543.5590702683602</v>
+        <v>1117717.392807435</v>
       </c>
       <c r="J105">
-        <v>-503.1290168345815</v>
+        <v>4840790.071212948</v>
       </c>
       <c r="K105">
-        <v>-4348.728433348453</v>
+        <v>3981001.27409307</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4120,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>36.39758453353253</v>
+        <v>1116397.389738985</v>
       </c>
       <c r="G106">
-        <v>481.2116732417783</v>
+        <v>4841854.494996297</v>
       </c>
       <c r="H106">
-        <v>1661.958529957349</v>
+        <v>3986350.396763942</v>
       </c>
       <c r="I106">
-        <v>583.6235933253712</v>
+        <v>1117817.329506336</v>
       </c>
       <c r="J106">
-        <v>-559.7152183285599</v>
+        <v>4840741.419630985</v>
       </c>
       <c r="K106">
-        <v>-4934.580179520795</v>
+        <v>3980547.637247475</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4155,1886 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>35.99099473060173</v>
+        <v>1116396.975339485</v>
       </c>
       <c r="G107">
-        <v>493.8937953008202</v>
+        <v>4841871.007826992</v>
       </c>
       <c r="H107">
-        <v>1667.618602793658</v>
+        <v>3986357.129466311</v>
       </c>
       <c r="I107">
-        <v>624.6746684039765</v>
+        <v>1117919.727054508</v>
       </c>
       <c r="J107">
-        <v>-616.3014198225387</v>
+        <v>4840692.768049019</v>
       </c>
       <c r="K107">
-        <v>-5539.995736575706</v>
+        <v>3980078.85174778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G108">
+        <v>4841123.478924465</v>
+      </c>
+      <c r="H108">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I108">
+        <v>1114859.858372554</v>
+      </c>
+      <c r="J108">
+        <v>4843221.810490045</v>
+      </c>
+      <c r="K108">
+        <v>3984369.164846941</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G109">
+        <v>4841123.478924465</v>
+      </c>
+      <c r="H109">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I109">
+        <v>1114889.472329199</v>
+      </c>
+      <c r="J109">
+        <v>4843173.158916517</v>
+      </c>
+      <c r="K109">
+        <v>3984672.960750751</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G110">
+        <v>4841123.478924465</v>
+      </c>
+      <c r="H110">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I110">
+        <v>1114919.815502281</v>
+      </c>
+      <c r="J110">
+        <v>4843124.507342989</v>
+      </c>
+      <c r="K110">
+        <v>3984961.607998247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G111">
+        <v>4841123.478924465</v>
+      </c>
+      <c r="H111">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I111">
+        <v>1114950.905848086</v>
+      </c>
+      <c r="J111">
+        <v>4843075.855769461</v>
+      </c>
+      <c r="K111">
+        <v>3985235.106589428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G112">
+        <v>4841123.478924465</v>
+      </c>
+      <c r="H112">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I112">
+        <v>1114982.761765053</v>
+      </c>
+      <c r="J112">
+        <v>4843027.204195933</v>
+      </c>
+      <c r="K112">
+        <v>3985493.456524295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>83</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G113">
+        <v>4841123.478924465</v>
+      </c>
+      <c r="H113">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I113">
+        <v>1115015.402104669</v>
+      </c>
+      <c r="J113">
+        <v>4842978.552622406</v>
+      </c>
+      <c r="K113">
+        <v>3985736.657802848</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G114">
+        <v>4841123.478924465</v>
+      </c>
+      <c r="H114">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I114">
+        <v>1115048.846182619</v>
+      </c>
+      <c r="J114">
+        <v>4842929.901048877</v>
+      </c>
+      <c r="K114">
+        <v>3985964.710425085</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G115">
+        <v>4841123.478924465</v>
+      </c>
+      <c r="H115">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I115">
+        <v>1115083.113790221</v>
+      </c>
+      <c r="J115">
+        <v>4842881.24947535</v>
+      </c>
+      <c r="K115">
+        <v>3986177.614391009</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>83</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116577.904013196</v>
+      </c>
+      <c r="G116">
+        <v>4841139.991739978</v>
+      </c>
+      <c r="H116">
+        <v>3985216.915226083</v>
+      </c>
+      <c r="I116">
+        <v>1115118.225206135</v>
+      </c>
+      <c r="J116">
+        <v>4842832.597901822</v>
+      </c>
+      <c r="K116">
+        <v>3986375.369700618</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>83</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116529.223475577</v>
+      </c>
+      <c r="G117">
+        <v>4841156.504555489</v>
+      </c>
+      <c r="H117">
+        <v>3985416.169062221</v>
+      </c>
+      <c r="I117">
+        <v>1115154.201208363</v>
+      </c>
+      <c r="J117">
+        <v>4842783.946328294</v>
+      </c>
+      <c r="K117">
+        <v>3986557.976353913</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>83</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116500.626101806</v>
+      </c>
+      <c r="G118">
+        <v>4841173.017371001</v>
+      </c>
+      <c r="H118">
+        <v>3985534.854837253</v>
+      </c>
+      <c r="I118">
+        <v>1115191.063086549</v>
+      </c>
+      <c r="J118">
+        <v>4842735.294754766</v>
+      </c>
+      <c r="K118">
+        <v>3986725.434350894</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>83</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116482.573341472</v>
+      </c>
+      <c r="G119">
+        <v>4841189.530186513</v>
+      </c>
+      <c r="H119">
+        <v>3985619.671539004</v>
+      </c>
+      <c r="I119">
+        <v>1115228.832654573</v>
+      </c>
+      <c r="J119">
+        <v>4842686.643181239</v>
+      </c>
+      <c r="K119">
+        <v>3986877.743691559</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>83</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.983419696</v>
+      </c>
+      <c r="G120">
+        <v>4841206.043002024</v>
+      </c>
+      <c r="H120">
+        <v>3985685.718259216</v>
+      </c>
+      <c r="I120">
+        <v>1115267.532263462</v>
+      </c>
+      <c r="J120">
+        <v>4842637.991607712</v>
+      </c>
+      <c r="K120">
+        <v>3987014.904375911</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>83</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116460.590961026</v>
+      </c>
+      <c r="G121">
+        <v>4841222.555817536</v>
+      </c>
+      <c r="H121">
+        <v>3985739.815646121</v>
+      </c>
+      <c r="I121">
+        <v>1115307.184814617</v>
+      </c>
+      <c r="J121">
+        <v>4842589.340034184</v>
+      </c>
+      <c r="K121">
+        <v>3987136.916403949</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>83</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116453.247369963</v>
+      </c>
+      <c r="G122">
+        <v>4841239.068633048</v>
+      </c>
+      <c r="H122">
+        <v>3985785.632183911</v>
+      </c>
+      <c r="I122">
+        <v>1115347.813773365</v>
+      </c>
+      <c r="J122">
+        <v>4842540.688460656</v>
+      </c>
+      <c r="K122">
+        <v>3987243.779775672</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>83</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116447.30587009</v>
+      </c>
+      <c r="G123">
+        <v>4841255.58144856</v>
+      </c>
+      <c r="H123">
+        <v>3985825.369686009</v>
+      </c>
+      <c r="I123">
+        <v>1115389.443182844</v>
+      </c>
+      <c r="J123">
+        <v>4842492.036887128</v>
+      </c>
+      <c r="K123">
+        <v>3987335.49449108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>83</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116442.372308119</v>
+      </c>
+      <c r="G124">
+        <v>4841272.094264071</v>
+      </c>
+      <c r="H124">
+        <v>3985860.453968189</v>
+      </c>
+      <c r="I124">
+        <v>1115432.097678232</v>
+      </c>
+      <c r="J124">
+        <v>4842443.3853136</v>
+      </c>
+      <c r="K124">
+        <v>3987412.060550174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>83</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116438.191485554</v>
+      </c>
+      <c r="G125">
+        <v>4841288.607079582</v>
+      </c>
+      <c r="H125">
+        <v>3985891.861460711</v>
+      </c>
+      <c r="I125">
+        <v>1115475.802501329</v>
+      </c>
+      <c r="J125">
+        <v>4842394.733740073</v>
+      </c>
+      <c r="K125">
+        <v>3987473.477952954</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>83</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116434.590114797</v>
+      </c>
+      <c r="G126">
+        <v>4841305.119895095</v>
+      </c>
+      <c r="H126">
+        <v>3985920.29022966</v>
+      </c>
+      <c r="I126">
+        <v>1115520.583515486</v>
+      </c>
+      <c r="J126">
+        <v>4842346.082166544</v>
+      </c>
+      <c r="K126">
+        <v>3987519.746699419</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>83</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116431.445932036</v>
+      </c>
+      <c r="G127">
+        <v>4841321.632710607</v>
+      </c>
+      <c r="H127">
+        <v>3985946.256664037</v>
+      </c>
+      <c r="I127">
+        <v>1115566.467220919</v>
+      </c>
+      <c r="J127">
+        <v>4842297.430593017</v>
+      </c>
+      <c r="K127">
+        <v>3987550.86678957</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116428.66991583</v>
+      </c>
+      <c r="G128">
+        <v>4841338.145526118</v>
+      </c>
+      <c r="H128">
+        <v>3985970.153517484</v>
+      </c>
+      <c r="I128">
+        <v>1115613.480770387</v>
+      </c>
+      <c r="J128">
+        <v>4842248.779019489</v>
+      </c>
+      <c r="K128">
+        <v>3987566.838223407</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>83</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116426.195522324</v>
+      </c>
+      <c r="G129">
+        <v>4841354.65834163</v>
+      </c>
+      <c r="H129">
+        <v>3985992.286475926</v>
+      </c>
+      <c r="I129">
+        <v>1115661.651985258</v>
+      </c>
+      <c r="J129">
+        <v>4842200.127445961</v>
+      </c>
+      <c r="K129">
+        <v>3987567.661000929</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>83</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.971888981</v>
+      </c>
+      <c r="G130">
+        <v>4841371.171157142</v>
+      </c>
+      <c r="H130">
+        <v>3986012.898131609</v>
+      </c>
+      <c r="I130">
+        <v>1115711.009371979</v>
+      </c>
+      <c r="J130">
+        <v>4842151.475872433</v>
+      </c>
+      <c r="K130">
+        <v>3987553.335122136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>83</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116421.959388657</v>
+      </c>
+      <c r="G131">
+        <v>4841387.683972653</v>
+      </c>
+      <c r="H131">
+        <v>3986032.184234384</v>
+      </c>
+      <c r="I131">
+        <v>1115761.58213894</v>
+      </c>
+      <c r="J131">
+        <v>4842102.824298905</v>
+      </c>
+      <c r="K131">
+        <v>3987523.860587029</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116420.126631334</v>
+      </c>
+      <c r="G132">
+        <v>4841404.196788166</v>
+      </c>
+      <c r="H132">
+        <v>3986050.305025665</v>
+      </c>
+      <c r="I132">
+        <v>1115813.400213761</v>
+      </c>
+      <c r="J132">
+        <v>4842054.172725378</v>
+      </c>
+      <c r="K132">
+        <v>3987479.237395608</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>83</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116418.448388112</v>
+      </c>
+      <c r="G133">
+        <v>4841420.709603677</v>
+      </c>
+      <c r="H133">
+        <v>3986067.393339104</v>
+      </c>
+      <c r="I133">
+        <v>1115866.494261003</v>
+      </c>
+      <c r="J133">
+        <v>4842005.521151849</v>
+      </c>
+      <c r="K133">
+        <v>3987419.465547873</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>83</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116416.90412023</v>
+      </c>
+      <c r="G134">
+        <v>4841437.222419188</v>
+      </c>
+      <c r="H134">
+        <v>3986083.560515325</v>
+      </c>
+      <c r="I134">
+        <v>1115920.895700312</v>
+      </c>
+      <c r="J134">
+        <v>4841956.869578321</v>
+      </c>
+      <c r="K134">
+        <v>3987344.545043823</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>83</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116415.476915397</v>
+      </c>
+      <c r="G135">
+        <v>4841453.7352347</v>
+      </c>
+      <c r="H135">
+        <v>3986098.90080247</v>
+      </c>
+      <c r="I135">
+        <v>1115976.636725016</v>
+      </c>
+      <c r="J135">
+        <v>4841908.218004795</v>
+      </c>
+      <c r="K135">
+        <v>3987254.475883459</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>83</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116414.152704604</v>
+      </c>
+      <c r="G136">
+        <v>4841470.248050212</v>
+      </c>
+      <c r="H136">
+        <v>3986113.494685152</v>
+      </c>
+      <c r="I136">
+        <v>1116033.750321173</v>
+      </c>
+      <c r="J136">
+        <v>4841859.566431267</v>
+      </c>
+      <c r="K136">
+        <v>3987149.25806678</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>83</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116412.919676074</v>
+      </c>
+      <c r="G137">
+        <v>4841486.760865724</v>
+      </c>
+      <c r="H137">
+        <v>3986127.411440452</v>
+      </c>
+      <c r="I137">
+        <v>1116092.270287092</v>
+      </c>
+      <c r="J137">
+        <v>4841810.914857739</v>
+      </c>
+      <c r="K137">
+        <v>3987028.891593787</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>83</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116411.767830299</v>
+      </c>
+      <c r="G138">
+        <v>4841503.273681235</v>
+      </c>
+      <c r="H138">
+        <v>3986140.711126817</v>
+      </c>
+      <c r="I138">
+        <v>1116152.231253334</v>
+      </c>
+      <c r="J138">
+        <v>4841762.263284211</v>
+      </c>
+      <c r="K138">
+        <v>3986893.376464479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>83</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116410.68863774</v>
+      </c>
+      <c r="G139">
+        <v>4841519.786496747</v>
+      </c>
+      <c r="H139">
+        <v>3986153.446150449</v>
+      </c>
+      <c r="I139">
+        <v>1116213.668703206</v>
+      </c>
+      <c r="J139">
+        <v>4841713.611710683</v>
+      </c>
+      <c r="K139">
+        <v>3986742.712678857</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>83</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116409.674772314</v>
+      </c>
+      <c r="G140">
+        <v>4841536.299312259</v>
+      </c>
+      <c r="H140">
+        <v>3986165.662512504</v>
+      </c>
+      <c r="I140">
+        <v>1116276.61899376</v>
+      </c>
+      <c r="J140">
+        <v>4841664.960137156</v>
+      </c>
+      <c r="K140">
+        <v>3986576.900236921</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>83</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116408.719901636</v>
+      </c>
+      <c r="G141">
+        <v>4841552.81212777</v>
+      </c>
+      <c r="H141">
+        <v>3986177.40081213</v>
+      </c>
+      <c r="I141">
+        <v>1116341.119377306</v>
+      </c>
+      <c r="J141">
+        <v>4841616.308563627</v>
+      </c>
+      <c r="K141">
+        <v>3986395.93913867</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>83</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116407.818520262</v>
+      </c>
+      <c r="G142">
+        <v>4841569.324943283</v>
+      </c>
+      <c r="H142">
+        <v>3986188.69706052</v>
+      </c>
+      <c r="I142">
+        <v>1116407.208023458</v>
+      </c>
+      <c r="J142">
+        <v>4841567.6569901</v>
+      </c>
+      <c r="K142">
+        <v>3986199.829384105</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>83</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.965815884</v>
+      </c>
+      <c r="G143">
+        <v>4841585.837758794</v>
+      </c>
+      <c r="H143">
+        <v>3986199.583347182</v>
+      </c>
+      <c r="I143">
+        <v>1116474.92404172</v>
+      </c>
+      <c r="J143">
+        <v>4841519.005416572</v>
+      </c>
+      <c r="K143">
+        <v>3985988.570973226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>83</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116406.15756107</v>
+      </c>
+      <c r="G144">
+        <v>4841602.350574305</v>
+      </c>
+      <c r="H144">
+        <v>3986210.088389487</v>
+      </c>
+      <c r="I144">
+        <v>1116544.307504635</v>
+      </c>
+      <c r="J144">
+        <v>4841470.353843044</v>
+      </c>
+      <c r="K144">
+        <v>3985762.163906032</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>83</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116405.390024963</v>
+      </c>
+      <c r="G145">
+        <v>4841618.863389817</v>
+      </c>
+      <c r="H145">
+        <v>3986220.237989207</v>
+      </c>
+      <c r="I145">
+        <v>1116615.399471492</v>
+      </c>
+      <c r="J145">
+        <v>4841421.702269516</v>
+      </c>
+      <c r="K145">
+        <v>3985520.608182523</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>83</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116404.659900743</v>
+      </c>
+      <c r="G146">
+        <v>4841635.37620533</v>
+      </c>
+      <c r="H146">
+        <v>3986230.055414309</v>
+      </c>
+      <c r="I146">
+        <v>1116688.24201263</v>
+      </c>
+      <c r="J146">
+        <v>4841373.050695988</v>
+      </c>
+      <c r="K146">
+        <v>3985263.903802701</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>83</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.964245631</v>
+      </c>
+      <c r="G147">
+        <v>4841651.889020841</v>
+      </c>
+      <c r="H147">
+        <v>3986239.561720237</v>
+      </c>
+      <c r="I147">
+        <v>1116762.878234329</v>
+      </c>
+      <c r="J147">
+        <v>4841324.399122461</v>
+      </c>
+      <c r="K147">
+        <v>3984992.050766564</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>83</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116403.300430941</v>
+      </c>
+      <c r="G148">
+        <v>4841668.401836352</v>
+      </c>
+      <c r="H148">
+        <v>3986248.776021831</v>
+      </c>
+      <c r="I148">
+        <v>1116839.352304324</v>
+      </c>
+      <c r="J148">
+        <v>4841275.747548933</v>
+      </c>
+      <c r="K148">
+        <v>3984705.049074112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>83</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116402.666100271</v>
+      </c>
+      <c r="G149">
+        <v>4841684.914651865</v>
+      </c>
+      <c r="H149">
+        <v>3986257.715724712</v>
+      </c>
+      <c r="I149">
+        <v>1116917.709477937</v>
+      </c>
+      <c r="J149">
+        <v>4841227.095975405</v>
+      </c>
+      <c r="K149">
+        <v>3984402.898725346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>83</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116402.059134287</v>
+      </c>
+      <c r="G150">
+        <v>4841701.427467376</v>
+      </c>
+      <c r="H150">
+        <v>3986266.396723181</v>
+      </c>
+      <c r="I150">
+        <v>1116997.996124863</v>
+      </c>
+      <c r="J150">
+        <v>4841178.444401878</v>
+      </c>
+      <c r="K150">
+        <v>3984085.599720266</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>83</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116401.477620921</v>
+      </c>
+      <c r="G151">
+        <v>4841717.940282888</v>
+      </c>
+      <c r="H151">
+        <v>3986274.833570275</v>
+      </c>
+      <c r="I151">
+        <v>1117080.259756608</v>
+      </c>
+      <c r="J151">
+        <v>4841129.79282835</v>
+      </c>
+      <c r="K151">
+        <v>3983753.152058871</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>83</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116400.919830027</v>
+      </c>
+      <c r="G152">
+        <v>4841734.4530984</v>
+      </c>
+      <c r="H152">
+        <v>3986283.039624563</v>
+      </c>
+      <c r="I152">
+        <v>1117164.549054603</v>
+      </c>
+      <c r="J152">
+        <v>4841081.141254822</v>
+      </c>
+      <c r="K152">
+        <v>3983405.555741162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>83</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116400.384191718</v>
+      </c>
+      <c r="G153">
+        <v>4841750.965913911</v>
+      </c>
+      <c r="H153">
+        <v>3986291.027177387</v>
+      </c>
+      <c r="I153">
+        <v>1117250.913899016</v>
+      </c>
+      <c r="J153">
+        <v>4841032.489681294</v>
+      </c>
+      <c r="K153">
+        <v>3983042.810767139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>83</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116399.869277776</v>
+      </c>
+      <c r="G154">
+        <v>4841767.478729423</v>
+      </c>
+      <c r="H154">
+        <v>3986298.807563604</v>
+      </c>
+      <c r="I154">
+        <v>1117339.405398269</v>
+      </c>
+      <c r="J154">
+        <v>4840983.838107767</v>
+      </c>
+      <c r="K154">
+        <v>3982664.917136801</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>83</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116399.37378563</v>
+      </c>
+      <c r="G155">
+        <v>4841783.991544934</v>
+      </c>
+      <c r="H155">
+        <v>3986306.391258322</v>
+      </c>
+      <c r="I155">
+        <v>1117430.075919281</v>
+      </c>
+      <c r="J155">
+        <v>4840935.186534239</v>
+      </c>
+      <c r="K155">
+        <v>3982271.874850149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>83</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116398.896524498</v>
+      </c>
+      <c r="G156">
+        <v>4841800.504360447</v>
+      </c>
+      <c r="H156">
+        <v>3986313.787961711</v>
+      </c>
+      <c r="I156">
+        <v>1117522.979118456</v>
+      </c>
+      <c r="J156">
+        <v>4840886.53496071</v>
+      </c>
+      <c r="K156">
+        <v>3981863.683907181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>83</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116398.436403345</v>
+      </c>
+      <c r="G157">
+        <v>4841817.017175958</v>
+      </c>
+      <c r="H157">
+        <v>3986321.006673607</v>
+      </c>
+      <c r="I157">
+        <v>1117618.169973443</v>
+      </c>
+      <c r="J157">
+        <v>4840837.883387183</v>
+      </c>
+      <c r="K157">
+        <v>3981440.344307901</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>83</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.992420397</v>
+      </c>
+      <c r="G158">
+        <v>4841833.529991469</v>
+      </c>
+      <c r="H158">
+        <v>3986328.055759343</v>
+      </c>
+      <c r="I158">
+        <v>1117715.704815659</v>
+      </c>
+      <c r="J158">
+        <v>4840789.231813655</v>
+      </c>
+      <c r="K158">
+        <v>3981001.856052305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>83</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116397.563653966</v>
+      </c>
+      <c r="G159">
+        <v>4841850.042806982</v>
+      </c>
+      <c r="H159">
+        <v>3986334.943008032</v>
+      </c>
+      <c r="I159">
+        <v>1117815.641363634</v>
+      </c>
+      <c r="J159">
+        <v>4840740.580240128</v>
+      </c>
+      <c r="K159">
+        <v>3980548.219140396</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>83</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116397.149254401</v>
+      </c>
+      <c r="G160">
+        <v>4841866.555622494</v>
+      </c>
+      <c r="H160">
+        <v>3986341.675684301</v>
+      </c>
+      <c r="I160">
+        <v>1117918.038757164</v>
+      </c>
+      <c r="J160">
+        <v>4840691.928666599</v>
+      </c>
+      <c r="K160">
+        <v>3980079.433572171</v>
       </c>
     </row>
   </sheetData>
